--- a/excel/成就表.xlsx
+++ b/excel/成就表.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity_Work\godus\trunk\develop\config_tools\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/work/godus/trunk/develop/config_tools/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Building" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>数组</t>
   </si>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>["c","ddd"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["999", 1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arrStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -519,20 +527,21 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="1"/>
     <col min="5" max="5" width="11" style="2"/>
-    <col min="6" max="8" width="11" style="3"/>
+    <col min="6" max="7" width="11" style="3"/>
+    <col min="8" max="8" width="18" style="3" customWidth="1"/>
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -558,12 +567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -589,7 +598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -615,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -638,10 +647,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -659,10 +668,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -688,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -714,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>4</v>
       </c>

--- a/excel/成就表.xlsx
+++ b/excel/成就表.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/work/godus/trunk/develop/config_tools/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chunks\Desktop\godus\trunk\develop\config_tools\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="38400" windowHeight="19545" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Building" sheetId="2" r:id="rId1"/>
+    <sheet name="BuildingCfg" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -119,11 +119,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>["999", 1]</t>
+    <t>arrStr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arrStr</t>
+    <t>["999", "123"]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -131,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -527,12 +527,12 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
     <col min="3" max="4" width="11" style="1"/>
     <col min="5" max="5" width="11" style="2"/>
@@ -541,7 +541,7 @@
     <col min="9" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -567,12 +567,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -598,7 +598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -624,7 +624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -647,10 +647,10 @@
         <v>22</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -668,10 +668,10 @@
         <v>26</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -697,7 +697,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>4</v>
       </c>
